--- a/spliced/struggle/2023-03-25_18-15-57/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-57/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-11.94581437110901</v>
+        <v>-4.713510870933534</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.326176047325134</v>
+        <v>-6.196972131729122</v>
       </c>
       <c r="C2" t="n">
-        <v>3.414738893508912</v>
+        <v>-6.711660981178287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-9.77044153213501</v>
+        <v>-5.068336345255377</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.753152847290039</v>
+        <v>-2.708849310874939</v>
       </c>
       <c r="C3" t="n">
-        <v>2.848081529140472</v>
+        <v>-9.788534998893738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-11.06323575973511</v>
+        <v>0.0401994585990876</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.340572357177738</v>
+        <v>-2.849318981170666</v>
       </c>
       <c r="C4" t="n">
-        <v>1.198068499565124</v>
+        <v>-9.811291694641097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-10.30651885271072</v>
+        <v>-1.265282429754738</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.94670915603638</v>
+        <v>-8.358855545520797</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.526615917682648</v>
+        <v>-3.638464748859389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.49337577819824</v>
+        <v>-8.772404074668895</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.68028235435487</v>
+        <v>-9.049420595169067</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.206422269344319</v>
+        <v>1.087344408035282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.819630205631256</v>
+        <v>-9.486006855964657</v>
       </c>
       <c r="B7" t="n">
-        <v>-14.63900339603424</v>
+        <v>-7.914790928363797</v>
       </c>
       <c r="C7" t="n">
-        <v>6.793743312358855</v>
+        <v>4.333469152450566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.808395385742186</v>
+        <v>-6.667140722274777</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.72815418243408</v>
+        <v>-5.866719007492064</v>
       </c>
       <c r="C8" t="n">
-        <v>5.361946105957027</v>
+        <v>7.366441488265995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.04346127808093958</v>
+        <v>-3.909939825534814</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.568030476570128</v>
+        <v>-4.199757695198058</v>
       </c>
       <c r="C9" t="n">
-        <v>1.398858070373533</v>
+        <v>8.474415659904475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.702489525079733</v>
+        <v>-1.259068042039859</v>
       </c>
       <c r="B10" t="n">
-        <v>-8.643238067626955</v>
+        <v>-3.636529445648192</v>
       </c>
       <c r="C10" t="n">
-        <v>4.04894053936005</v>
+        <v>9.419335365295435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.539632081985463</v>
+        <v>1.691281750798222</v>
       </c>
       <c r="B11" t="n">
-        <v>-9.387130379676819</v>
+        <v>-3.219833493232723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.643666893243779</v>
+        <v>15.28036725521086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06136894226072265</v>
+        <v>0.7758507728576624</v>
       </c>
       <c r="B12" t="n">
-        <v>-8.347719192504877</v>
+        <v>-2.317984580993662</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.627987146377566</v>
+        <v>10.35012340545653</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.769749701023101</v>
+        <v>-0.05869728326797519</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.22409576177597</v>
+        <v>-4.645559132099153</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.140938371419908</v>
+        <v>8.129511415958403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.713510870933534</v>
+        <v>-7.922254800796521</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.196972131729122</v>
+        <v>-8.533369660377506</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.711660981178287</v>
+        <v>4.239331245422359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.068336345255377</v>
+        <v>-7.12406146526336</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.708849310874939</v>
+        <v>-9.578974485397339</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.788534998893738</v>
+        <v>5.120484650135045</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0401994585990876</v>
+        <v>-4.634187221527098</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.849318981170666</v>
+        <v>-9.333477973937988</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.811291694641097</v>
+        <v>4.373982667922966</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.265282429754738</v>
+        <v>-2.660379245877256</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.358855545520797</v>
+        <v>-9.284614562988283</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.638464748859389</v>
+        <v>-3.805972993373912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-8.772404074668895</v>
+        <v>0.6678269803524017</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.049420595169067</v>
+        <v>-9.062278509140016</v>
       </c>
       <c r="C18" t="n">
-        <v>1.087344408035282</v>
+        <v>-10.71978342533112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-9.486006855964657</v>
+        <v>2.381343364715557</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.914790928363797</v>
+        <v>-7.552583456039422</v>
       </c>
       <c r="C19" t="n">
-        <v>4.333469152450566</v>
+        <v>0.6790638566017475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.667140722274777</v>
+        <v>-2.60627746582033</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.866719007492064</v>
+        <v>-5.606535911560057</v>
       </c>
       <c r="C20" t="n">
-        <v>7.366441488265995</v>
+        <v>9.005005836486802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.909939825534814</v>
+        <v>-6.737108409404774</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.199757695198058</v>
+        <v>-5.243253648281096</v>
       </c>
       <c r="C21" t="n">
-        <v>8.474415659904475</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-1.259068042039859</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.636529445648192</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.419335365295435</v>
+        <v>5.65115070343016</v>
       </c>
     </row>
   </sheetData>
